--- a/testData/routing_test_data.xlsx
+++ b/testData/routing_test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,14 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单个删除路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部删除路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F06_S11_T18_add_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +210,22 @@
   </si>
   <si>
     <t>test_F06_S11_T18_checkout_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除net类型路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除host类型路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.2.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +603,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -659,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -681,7 +685,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +700,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -754,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -778,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -792,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -800,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -814,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -824,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -838,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -846,7 +850,7 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -860,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -870,7 +874,7 @@
         <v>255</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -894,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -902,23 +906,23 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -942,15 +946,15 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -962,15 +966,15 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -984,37 +988,37 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1022,7 +1026,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1036,14 +1040,14 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
@@ -1078,7 +1082,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -1095,23 +1099,31 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
